--- a/config/JuiceZombie/Items.xlsx
+++ b/config/JuiceZombie/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F0987-297C-4412-8DCE-056CC317BE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D5A1C-BEE9-4C1E-8FE2-D3BE1800AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items|道具" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>

--- a/config/JuiceZombie/Items.xlsx
+++ b/config/JuiceZombie/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D5A1C-BEE9-4C1E-8FE2-D3BE1800AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1954AB-AE9B-4225-9CE4-A7B679CFC516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4550" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items|道具" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
           <t xml:space="preserve">
 1 资源
 2 碎片
-3 </t>
+3 杂物箱子--包含资源和碎片</t>
         </r>
       </text>
     </comment>
@@ -83,12 +83,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F90050AC-4DD8-4578-A512-1F2632ECADEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>许天盈:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+杂物箱 可以开出英雄碎片1 资源100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{104AF626-5DC7-46D9-99C2-8EFE46051571}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>许天盈:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+万能英雄碎片 可以转换成任意一种英雄的碎片</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -175,10 +227,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>icon_diamond_desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_diamond</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -192,6 +240,63 @@
   </si>
   <si>
     <t>array3_int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_box</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_hero_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_diamond_desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_gold_desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_box_desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_hero_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero1_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_hero1_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_hero1_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero2_part</t>
+  </si>
+  <si>
+    <t>item_hero2_part</t>
+  </si>
+  <si>
+    <t>icon_hero2_part</t>
+  </si>
+  <si>
+    <t>201;1;10|202;1;20|203;1;20|101;100;30|102;1000;40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -644,8 +749,8 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.7265625" style="2" customWidth="1"/>
@@ -704,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -802,14 +907,20 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -822,23 +933,132 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>501</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>201</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>203</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
+    </row>
     <row r="11" spans="1:11" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/config/JuiceZombie/Items.xlsx
+++ b/config/JuiceZombie/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\JuiceZombies\config\JuiceZombie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1954AB-AE9B-4225-9CE4-A7B679CFC516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8386F27F-D528-4D6C-93E9-436E0B3AE771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4550" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="3140" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items|道具" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
